--- a/biology/Botanique/Psidium_salutare/Psidium_salutare.xlsx
+++ b/biology/Botanique/Psidium_salutare/Psidium_salutare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Psidium salutare est un arbuste ou petit arbre du genre des Psidium, famille des Myrtacées. Il est originaire d'Amérique centrale et d'une grande partie de l'Amérique du Sud[1].
-À Cuba il est aussi appelé « Guayabita del Pinar »[2].
+Psidium salutare est un arbuste ou petit arbre du genre des Psidium, famille des Myrtacées. Il est originaire d'Amérique centrale et d'une grande partie de l'Amérique du Sud.
+À Cuba il est aussi appelé « Guayabita del Pinar ».
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Sous-espèces / variantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Psidium salutare var. decussatum (DC.) Landrum (en)[1], dont deux synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Psidium salutare var. decussatum (DC.) Landrum (en), dont deux synonymes :
 syn. Guajava decussata (DC.) Kuntze (1891)
 syn. Psidium decussatum DC. (1828)
-Psidium salutare var. mucronatum (Burret) Landrum (en)[1], dont 28 synonymes[4] :
+Psidium salutare var. mucronatum (Burret) Landrum (en), dont 28 synonymes :
 syn. Myrtus acutata O.Berg (1857)
 syn. Myrtus cuspidata O.Berg  (1857)
 syn. Myrtus cuspidata var. pentamera O.Berg (1857)
@@ -547,11 +561,11 @@
 syn. Psidium pubifolium Burret (1941)
 syn. Psidium pubifolium f. nanum Rotman (es) (1976)
 syn. Psidium thea Griseb. (1874)
-Psidium salutare var. pohlianum (O.Berg) Landrum (en)[1], dont 3 synonymes[5] :
+Psidium salutare var. pohlianum (O.Berg) Landrum (en), dont 3 synonymes :
 syn. Guajava pohliana (O.Berg) Kuntze (1891)
 syn. Psidium pohlianum O.Berg (1857)
 syn. Psidium pohlianum var. brevipes O.Berg (1857)
-Psidium salutare var. salutare[1], dont 32 synonymes[6] :
+Psidium salutare var. salutare, dont 32 synonymes :
 syn. Calycolpus parviflorus Sagot (1885)
 syn. Eugenia guayavillo Benth. (1845)
 syn. Guajava ciliata (Benth.) Kuntze (1891)
@@ -584,7 +598,7 @@
 syn. Psidium salutare var. laxum O.Berg (1856)
 syn. Psidium salutare var. subalternum O.Berg (1856)
 syn. Psidium valenzuelense Barb.Rodr. (1907), describing the collection, not the taxon.
-Psidium salutare var. sericeum (Cambess.) Landrum (en)[1]</t>
+Psidium salutare var. sericeum (Cambess.) Landrum (en)</t>
         </is>
       </c>
     </row>
@@ -612,15 +626,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Psidium salutare var. pohlianum
 			Écorce
 			Fleur
 			Fruit
-Sa capacité germinative est de moins de 25%, ce qui ne permet pas la régénération naturelle[7].
-La production de fruits est très irrégulière d'une année sur l'autre[8] ; elle est fortement dépendante de la hauteur et de la largeur de la couronne[9].
+Sa capacité germinative est de moins de 25%, ce qui ne permet pas la régénération naturelle.
+La production de fruits est très irrégulière d'une année sur l'autre ; elle est fortement dépendante de la hauteur et de la largeur de la couronne.
 </t>
         </is>
       </c>
@@ -649,11 +665,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psidium salutare est présent dans la zone des Caraïbes et en Amérique Centrale[10]. A Cuba il ne pousse que dans la partie ouest de l'île (province de Pinar del Rio)[11], comprenant l'île de la Juventud, Los Palacios, San Juan, Guane, La Palma et Viñales[12] (région de Vueltabajo[12]).
-Il est typique des pinèdes sur les collines siliceuses[12]. On le trouve généralement sur des sols ferriques quartzeux, lessivés et pauvres en nutriments[13], en petits groupes ou en individus isolés, et souvent associés à Pinus tropicalis[10].
-Noter qu'il y a 50 ans cette espèce occupait les savanes et les semi-savanes des pinèdes ; mais en raison du développement social et économique des zones rurales et de la gestion intensive des forêts, elle a été déplacée vers des endroits peu accessibles, ce qui entraîne la modification de son biotope et par conséquent la diminution de ses populations. De nos jours il est rare de rencontrer des populations en bon état[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psidium salutare est présent dans la zone des Caraïbes et en Amérique Centrale. A Cuba il ne pousse que dans la partie ouest de l'île (province de Pinar del Rio), comprenant l'île de la Juventud, Los Palacios, San Juan, Guane, La Palma et Viñales (région de Vueltabajo).
+Il est typique des pinèdes sur les collines siliceuses. On le trouve généralement sur des sols ferriques quartzeux, lessivés et pauvres en nutriments, en petits groupes ou en individus isolés, et souvent associés à Pinus tropicalis.
+Noter qu'il y a 50 ans cette espèce occupait les savanes et les semi-savanes des pinèdes ; mais en raison du développement social et économique des zones rurales et de la gestion intensive des forêts, elle a été déplacée vers des endroits peu accessibles, ce qui entraîne la modification de son biotope et par conséquent la diminution de ses populations. De nos jours il est rare de rencontrer des populations en bon état.
 </t>
         </is>
       </c>
@@ -682,9 +700,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fruits servent à la fabrication du guayabita de Pinar, liqueur typique de la région de Pinar del Río à Cuba[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits servent à la fabrication du guayabita de Pinar, liqueur typique de la région de Pinar del Río à Cuba.
 </t>
         </is>
       </c>
@@ -713,9 +733,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A l'université de Pinar del Rio, un projet de conservation de l'espèce et d'amélioration génétique est en cours depuis le début des années 1990 en raison de l'état de dégradation de ses populations, qui ont été essentiellement réduites à des individus isolés très âgés[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'université de Pinar del Rio, un projet de conservation de l'espèce et d'amélioration génétique est en cours depuis le début des années 1990 en raison de l'état de dégradation de ses populations, qui ont été essentiellement réduites à des individus isolés très âgés.
 </t>
         </is>
       </c>
